--- a/table/variables.xlsx
+++ b/table/variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Documents/01_Studium/00_INRM/05_MaThesis/MaThesisWriting/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C231A700-58D5-9247-A01D-C8E16DFDAAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D458D052-178D-6548-BFAF-09455F8F9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{8A3048DC-5534-6B4D-88B6-1087106016E9}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>ln(Euros/a)</t>
   </si>
   <si>
-    <t>Ista (sub-sample)</t>
-  </si>
-  <si>
     <t>Statistische Ämter (2021)</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Regional socio-economic factors, district-level</t>
+  </si>
+  <si>
+    <t>Ista (EPC sample)</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -698,7 +698,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -714,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -744,7 +744,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -782,7 +782,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -798,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="3"/>
     </row>
